--- a/Code/Results/Cases/Case_5_175/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_175/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.009018461409865</v>
+        <v>1.035492529207973</v>
       </c>
       <c r="D2">
-        <v>1.023474255475172</v>
+        <v>1.037378459628777</v>
       </c>
       <c r="E2">
-        <v>1.020695760063364</v>
+        <v>1.043347320323245</v>
       </c>
       <c r="F2">
-        <v>1.023474635808483</v>
+        <v>1.051433521651894</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044481305048433</v>
+        <v>1.036698782795838</v>
       </c>
       <c r="J2">
-        <v>1.030932737570607</v>
+        <v>1.040606006761255</v>
       </c>
       <c r="K2">
-        <v>1.0346159637257</v>
+        <v>1.040169514315052</v>
       </c>
       <c r="L2">
-        <v>1.031874107218858</v>
+        <v>1.046121442126428</v>
       </c>
       <c r="M2">
-        <v>1.034616339060773</v>
+        <v>1.054185036440427</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.013023119687799</v>
+        <v>1.036345533137149</v>
       </c>
       <c r="D3">
-        <v>1.026269448706087</v>
+        <v>1.037993403367823</v>
       </c>
       <c r="E3">
-        <v>1.024154651460775</v>
+        <v>1.04414007371606</v>
       </c>
       <c r="F3">
-        <v>1.027569099238612</v>
+        <v>1.052386945588968</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045518343705586</v>
+        <v>1.036872791389277</v>
       </c>
       <c r="J3">
-        <v>1.033164949258794</v>
+        <v>1.041103068719073</v>
       </c>
       <c r="K3">
-        <v>1.036576888085125</v>
+        <v>1.040594769499334</v>
       </c>
       <c r="L3">
-        <v>1.034487522936388</v>
+        <v>1.046725259811469</v>
       </c>
       <c r="M3">
-        <v>1.037860973712064</v>
+        <v>1.054950743636265</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.015566239069064</v>
+        <v>1.036898069220729</v>
       </c>
       <c r="D4">
-        <v>1.028047360393877</v>
+        <v>1.03839175007892</v>
       </c>
       <c r="E4">
-        <v>1.026356956427618</v>
+        <v>1.04465399806848</v>
       </c>
       <c r="F4">
-        <v>1.030176542569962</v>
+        <v>1.053005191315282</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046168570066543</v>
+        <v>1.036984456721124</v>
       </c>
       <c r="J4">
-        <v>1.034579969855451</v>
+        <v>1.041424628648928</v>
       </c>
       <c r="K4">
-        <v>1.037818664861875</v>
+        <v>1.040869681295405</v>
       </c>
       <c r="L4">
-        <v>1.036147352086141</v>
+        <v>1.0471162729038</v>
       </c>
       <c r="M4">
-        <v>1.039923910133555</v>
+        <v>1.055446898853029</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.016624198580857</v>
+        <v>1.037130494042757</v>
       </c>
       <c r="D5">
-        <v>1.028787626550548</v>
+        <v>1.038559317984575</v>
       </c>
       <c r="E5">
-        <v>1.027274489865019</v>
+        <v>1.04487027995685</v>
       </c>
       <c r="F5">
-        <v>1.031262996368185</v>
+        <v>1.053265415280732</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046437038311499</v>
+        <v>1.037031177565089</v>
       </c>
       <c r="J5">
-        <v>1.035167997229858</v>
+        <v>1.041559793909641</v>
       </c>
       <c r="K5">
-        <v>1.038334383770194</v>
+        <v>1.040985191581794</v>
       </c>
       <c r="L5">
-        <v>1.036837877367071</v>
+        <v>1.047280725910375</v>
       </c>
       <c r="M5">
-        <v>1.040782676950547</v>
+        <v>1.055655646497785</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.016801189987855</v>
+        <v>1.037169527279692</v>
       </c>
       <c r="D6">
-        <v>1.028911505751199</v>
+        <v>1.038587459361664</v>
       </c>
       <c r="E6">
-        <v>1.027428067552884</v>
+        <v>1.044906607963213</v>
       </c>
       <c r="F6">
-        <v>1.031444856284627</v>
+        <v>1.053309126360177</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046481831403514</v>
+        <v>1.037039009089341</v>
       </c>
       <c r="J6">
-        <v>1.035266333283609</v>
+        <v>1.041582487629904</v>
       </c>
       <c r="K6">
-        <v>1.038420608841524</v>
+        <v>1.041004582560401</v>
       </c>
       <c r="L6">
-        <v>1.036953399365793</v>
+        <v>1.047308342423832</v>
       </c>
       <c r="M6">
-        <v>1.04092637709846</v>
+        <v>1.055690705717544</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.015580418989006</v>
+        <v>1.036901174349661</v>
       </c>
       <c r="D7">
-        <v>1.028057279775277</v>
+        <v>1.038393988727059</v>
       </c>
       <c r="E7">
-        <v>1.026369248889006</v>
+        <v>1.044656887143564</v>
       </c>
       <c r="F7">
-        <v>1.030191097569559</v>
+        <v>1.05300866721115</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046172176432219</v>
+        <v>1.036985081885403</v>
       </c>
       <c r="J7">
-        <v>1.034587853772776</v>
+        <v>1.041426434808088</v>
       </c>
       <c r="K7">
-        <v>1.037825580568513</v>
+        <v>1.040871224997074</v>
       </c>
       <c r="L7">
-        <v>1.036156607202205</v>
+        <v>1.047118470055241</v>
       </c>
       <c r="M7">
-        <v>1.039935418046226</v>
+        <v>1.055449687506835</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.010382050003062</v>
+        <v>1.03578068373358</v>
       </c>
       <c r="D8">
-        <v>1.024425395739155</v>
+        <v>1.037586191259892</v>
       </c>
       <c r="E8">
-        <v>1.021872288506406</v>
+        <v>1.043615035262156</v>
       </c>
       <c r="F8">
-        <v>1.024867265962424</v>
+        <v>1.051755462050887</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044836143507895</v>
+        <v>1.036757781957621</v>
       </c>
       <c r="J8">
-        <v>1.031693318418911</v>
+        <v>1.04077400544365</v>
       </c>
       <c r="K8">
-        <v>1.035284369632378</v>
+        <v>1.040313283754073</v>
       </c>
       <c r="L8">
-        <v>1.03276391721055</v>
+        <v>1.046325441652573</v>
       </c>
       <c r="M8">
-        <v>1.035720608867634</v>
+        <v>1.054443666671308</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.000835891010607</v>
+        <v>1.033810787578096</v>
       </c>
       <c r="D9">
-        <v>1.017780636644234</v>
+        <v>1.0361661694757</v>
       </c>
       <c r="E9">
-        <v>1.013661329413552</v>
+        <v>1.041786586476362</v>
       </c>
       <c r="F9">
-        <v>1.015149314122708</v>
+        <v>1.049557316380466</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042318066664929</v>
+        <v>1.036350157612704</v>
       </c>
       <c r="J9">
-        <v>1.026359166302459</v>
+        <v>1.039623840282886</v>
       </c>
       <c r="K9">
-        <v>1.030591675039968</v>
+        <v>1.039328205282475</v>
       </c>
       <c r="L9">
-        <v>1.026536582375432</v>
+        <v>1.044930402497078</v>
       </c>
       <c r="M9">
-        <v>1.028001294494905</v>
+        <v>1.052676293576075</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9941870464585493</v>
+        <v>1.032500673915796</v>
       </c>
       <c r="D10">
-        <v>1.013172467117778</v>
+        <v>1.03522188756141</v>
       </c>
       <c r="E10">
-        <v>1.007976430833414</v>
+        <v>1.040572716346617</v>
       </c>
       <c r="F10">
-        <v>1.008421642883358</v>
+        <v>1.048098822853907</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040522620301948</v>
+        <v>1.036073678063231</v>
       </c>
       <c r="J10">
-        <v>1.022633209807195</v>
+        <v>1.03885679811576</v>
       </c>
       <c r="K10">
-        <v>1.027307892978753</v>
+        <v>1.038670268545391</v>
       </c>
       <c r="L10">
-        <v>1.022203146485037</v>
+        <v>1.044002056308442</v>
       </c>
       <c r="M10">
-        <v>1.022640488761734</v>
+        <v>1.051501743492426</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9912344483463894</v>
+        <v>1.031934146405744</v>
       </c>
       <c r="D11">
-        <v>1.011131527046835</v>
+        <v>1.034813593157688</v>
       </c>
       <c r="E11">
-        <v>1.005460456735237</v>
+        <v>1.040048327328079</v>
       </c>
       <c r="F11">
-        <v>1.005444012233943</v>
+        <v>1.047468946416308</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039715908110094</v>
+        <v>1.035952845644265</v>
       </c>
       <c r="J11">
-        <v>1.020976486431221</v>
+        <v>1.038524612513418</v>
       </c>
       <c r="K11">
-        <v>1.025846528550924</v>
+        <v>1.038385100500157</v>
       </c>
       <c r="L11">
-        <v>1.020280126329081</v>
+        <v>1.043600487656663</v>
       </c>
       <c r="M11">
-        <v>1.020263987575257</v>
+        <v>1.050994046991437</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9901261133078657</v>
+        <v>1.03172382860758</v>
       </c>
       <c r="D12">
-        <v>1.010366288828391</v>
+        <v>1.034662024161506</v>
       </c>
       <c r="E12">
-        <v>1.004517350154214</v>
+        <v>1.039853731642988</v>
       </c>
       <c r="F12">
-        <v>1.004327805164311</v>
+        <v>1.047235233566523</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039411717587841</v>
+        <v>1.035907796237382</v>
       </c>
       <c r="J12">
-        <v>1.020354313139128</v>
+        <v>1.038401217491344</v>
       </c>
       <c r="K12">
-        <v>1.025297545895446</v>
+        <v>1.038279135934239</v>
       </c>
       <c r="L12">
-        <v>1.019558513599531</v>
+        <v>1.043451390352899</v>
       </c>
       <c r="M12">
-        <v>1.019372558310787</v>
+        <v>1.050805601392408</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9903643894641351</v>
+        <v>1.0317689372273</v>
       </c>
       <c r="D13">
-        <v>1.010530763158045</v>
+        <v>1.034694532138193</v>
       </c>
       <c r="E13">
-        <v>1.004720043712389</v>
+        <v>1.039895464644745</v>
       </c>
       <c r="F13">
-        <v>1.004567704361189</v>
+        <v>1.047285354365573</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039477175415778</v>
+        <v>1.035917467028809</v>
       </c>
       <c r="J13">
-        <v>1.020488083447251</v>
+        <v>1.038427686417167</v>
       </c>
       <c r="K13">
-        <v>1.025415587574172</v>
+        <v>1.03830186750524</v>
       </c>
       <c r="L13">
-        <v>1.019713638360605</v>
+        <v>1.043483369349959</v>
       </c>
       <c r="M13">
-        <v>1.019564172751377</v>
+        <v>1.050846017456993</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9911430731414017</v>
+        <v>1.031916759101055</v>
       </c>
       <c r="D14">
-        <v>1.011068419684749</v>
+        <v>1.034801062577</v>
       </c>
       <c r="E14">
-        <v>1.005382676259245</v>
+        <v>1.040032238188849</v>
       </c>
       <c r="F14">
-        <v>1.005351956872973</v>
+        <v>1.047449622502426</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03969085713864</v>
+        <v>1.035949125246541</v>
       </c>
       <c r="J14">
-        <v>1.02092519762449</v>
+        <v>1.038514412767995</v>
       </c>
       <c r="K14">
-        <v>1.025801276699262</v>
+        <v>1.038376342254599</v>
       </c>
       <c r="L14">
-        <v>1.020220628751772</v>
+        <v>1.043588161930384</v>
       </c>
       <c r="M14">
-        <v>1.020190481396094</v>
+        <v>1.050978467246528</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9916212905624255</v>
+        <v>1.032007852418607</v>
       </c>
       <c r="D15">
-        <v>1.011398732077447</v>
+        <v>1.034866711436508</v>
       </c>
       <c r="E15">
-        <v>1.005789799395291</v>
+        <v>1.040116533548475</v>
       </c>
       <c r="F15">
-        <v>1.005833796263155</v>
+        <v>1.047550866876499</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039821907230677</v>
+        <v>1.035968608827165</v>
       </c>
       <c r="J15">
-        <v>1.021193609425835</v>
+        <v>1.038567846910004</v>
       </c>
       <c r="K15">
-        <v>1.026038087984751</v>
+        <v>1.038422223279854</v>
       </c>
       <c r="L15">
-        <v>1.020532022921442</v>
+        <v>1.043652736509828</v>
       </c>
       <c r="M15">
-        <v>1.020575207069163</v>
+        <v>1.051060091933203</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9943814036947278</v>
+        <v>1.032538288629306</v>
       </c>
       <c r="D16">
-        <v>1.013306932598399</v>
+        <v>1.035248997205655</v>
       </c>
       <c r="E16">
-        <v>1.00814222913771</v>
+        <v>1.040607544271398</v>
       </c>
       <c r="F16">
-        <v>1.008617858101296</v>
+        <v>1.048140660823017</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040575530318534</v>
+        <v>1.036081673876986</v>
       </c>
       <c r="J16">
-        <v>1.022742224177399</v>
+        <v>1.038878843202602</v>
       </c>
       <c r="K16">
-        <v>1.027404027473348</v>
+        <v>1.038689188471457</v>
       </c>
       <c r="L16">
-        <v>1.022329762500584</v>
+        <v>1.044028715881339</v>
       </c>
       <c r="M16">
-        <v>1.022797012590304</v>
+        <v>1.051535456551647</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.996092665648483</v>
+        <v>1.032871221882252</v>
       </c>
       <c r="D17">
-        <v>1.014491492077363</v>
+        <v>1.035488953030921</v>
       </c>
       <c r="E17">
-        <v>1.009603018336805</v>
+        <v>1.040915871455385</v>
       </c>
       <c r="F17">
-        <v>1.010346618949146</v>
+        <v>1.048511068901719</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041040322315799</v>
+        <v>1.036152298544616</v>
       </c>
       <c r="J17">
-        <v>1.023701829482694</v>
+        <v>1.039073910081683</v>
       </c>
       <c r="K17">
-        <v>1.028250115907074</v>
+        <v>1.038856575324956</v>
       </c>
       <c r="L17">
-        <v>1.023444741145656</v>
+        <v>1.044264668910469</v>
       </c>
       <c r="M17">
-        <v>1.024175634334168</v>
+        <v>1.051833879980042</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9970837529357381</v>
+        <v>1.033065489477312</v>
       </c>
       <c r="D18">
-        <v>1.015178049354327</v>
+        <v>1.035628971620669</v>
       </c>
       <c r="E18">
-        <v>1.01044985320066</v>
+        <v>1.041095831540077</v>
       </c>
       <c r="F18">
-        <v>1.011348786826643</v>
+        <v>1.048727281799222</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041308613462547</v>
+        <v>1.036193385098729</v>
       </c>
       <c r="J18">
-        <v>1.02425738709315</v>
+        <v>1.039187684263061</v>
       </c>
       <c r="K18">
-        <v>1.028739833943946</v>
+        <v>1.03895418243012</v>
       </c>
       <c r="L18">
-        <v>1.024090613948792</v>
+        <v>1.044402335920105</v>
       </c>
       <c r="M18">
-        <v>1.024974459193135</v>
+        <v>1.052008031222919</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9974205062686704</v>
+        <v>1.033131742087444</v>
       </c>
       <c r="D19">
-        <v>1.01541141405417</v>
+        <v>1.035676723858841</v>
       </c>
       <c r="E19">
-        <v>1.010737728357272</v>
+        <v>1.041157213249613</v>
       </c>
       <c r="F19">
-        <v>1.011689464847673</v>
+        <v>1.048801031917026</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041399620707629</v>
+        <v>1.036207376278246</v>
       </c>
       <c r="J19">
-        <v>1.024446119782529</v>
+        <v>1.039226477429063</v>
       </c>
       <c r="K19">
-        <v>1.028906179100352</v>
+        <v>1.038987459346676</v>
       </c>
       <c r="L19">
-        <v>1.024310090020821</v>
+        <v>1.044449283487929</v>
       </c>
       <c r="M19">
-        <v>1.025245950066885</v>
+        <v>1.052067426820041</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9959097978509834</v>
+        <v>1.032835493706391</v>
       </c>
       <c r="D20">
-        <v>1.014364854791023</v>
+        <v>1.035463202194086</v>
       </c>
       <c r="E20">
-        <v>1.009446832045381</v>
+        <v>1.040882778643018</v>
       </c>
       <c r="F20">
-        <v>1.010161782895275</v>
+        <v>1.048471311044364</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040990746627769</v>
+        <v>1.036144732313139</v>
       </c>
       <c r="J20">
-        <v>1.023599305567425</v>
+        <v>1.039052981763113</v>
       </c>
       <c r="K20">
-        <v>1.028159732422492</v>
+        <v>1.03883861906479</v>
       </c>
       <c r="L20">
-        <v>1.023325579610287</v>
+        <v>1.044239349277611</v>
       </c>
       <c r="M20">
-        <v>1.024028272427315</v>
+        <v>1.051801853073517</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9909140952532234</v>
+        <v>1.031873226036362</v>
       </c>
       <c r="D21">
-        <v>1.010910292857681</v>
+        <v>1.034769689527489</v>
       </c>
       <c r="E21">
-        <v>1.005187787104904</v>
+        <v>1.039991956647671</v>
       </c>
       <c r="F21">
-        <v>1.005121299234828</v>
+        <v>1.047401242678897</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039628059769787</v>
+        <v>1.035939807291643</v>
       </c>
       <c r="J21">
-        <v>1.020796668217719</v>
+        <v>1.038488874188984</v>
       </c>
       <c r="K21">
-        <v>1.025687873080145</v>
+        <v>1.038354412404526</v>
       </c>
       <c r="L21">
-        <v>1.020071537332443</v>
+        <v>1.043557301372442</v>
       </c>
       <c r="M21">
-        <v>1.020006292289513</v>
+        <v>1.050939460332115</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9877056369723501</v>
+        <v>1.031268880567684</v>
       </c>
       <c r="D22">
-        <v>1.008696791039155</v>
+        <v>1.034334170547912</v>
       </c>
       <c r="E22">
-        <v>1.002460209275244</v>
+        <v>1.039432937025777</v>
       </c>
       <c r="F22">
-        <v>1.001892969458695</v>
+        <v>1.046729903077205</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038744929885378</v>
+        <v>1.035809997678911</v>
       </c>
       <c r="J22">
-        <v>1.01899508960911</v>
+        <v>1.038134160365393</v>
       </c>
       <c r="K22">
-        <v>1.024097909351771</v>
+        <v>1.038049738969789</v>
       </c>
       <c r="L22">
-        <v>1.017983085980684</v>
+        <v>1.043128836964105</v>
       </c>
       <c r="M22">
-        <v>1.01742701929637</v>
+        <v>1.050398024444218</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9894130888148955</v>
+        <v>1.031589191483129</v>
       </c>
       <c r="D23">
-        <v>1.009874245424166</v>
+        <v>1.034564997545942</v>
       </c>
       <c r="E23">
-        <v>1.003911002512026</v>
+        <v>1.039729181376466</v>
       </c>
       <c r="F23">
-        <v>1.003610149346135</v>
+        <v>1.047085654405642</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039215642216928</v>
+        <v>1.035878903477798</v>
       </c>
       <c r="J23">
-        <v>1.019953977175434</v>
+        <v>1.038322203979167</v>
       </c>
       <c r="K23">
-        <v>1.024944256480693</v>
+        <v>1.038211273862201</v>
       </c>
       <c r="L23">
-        <v>1.019094352501246</v>
+        <v>1.043355938886696</v>
       </c>
       <c r="M23">
-        <v>1.018799264147749</v>
+        <v>1.050684974955321</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.995992449723814</v>
+        <v>1.032851637504967</v>
       </c>
       <c r="D24">
-        <v>1.014422090232548</v>
+        <v>1.035474837714719</v>
       </c>
       <c r="E24">
-        <v>1.009517422007033</v>
+        <v>1.04089773149591</v>
       </c>
       <c r="F24">
-        <v>1.010245321442733</v>
+        <v>1.048489275414177</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041013156433439</v>
+        <v>1.036148151500061</v>
       </c>
       <c r="J24">
-        <v>1.023645644559459</v>
+        <v>1.039062438385108</v>
       </c>
       <c r="K24">
-        <v>1.028200584527055</v>
+        <v>1.038846732808836</v>
       </c>
       <c r="L24">
-        <v>1.023379437386611</v>
+        <v>1.044250790007637</v>
       </c>
       <c r="M24">
-        <v>1.024094875286185</v>
+        <v>1.051816324388743</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.003352050534388</v>
+        <v>1.034319504291269</v>
       </c>
       <c r="D25">
-        <v>1.019528851077743</v>
+        <v>1.036532863532586</v>
       </c>
       <c r="E25">
-        <v>1.01581984611002</v>
+        <v>1.04225839362846</v>
       </c>
       <c r="F25">
-        <v>1.017703793530516</v>
+        <v>1.050124374715419</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042989117893724</v>
+        <v>1.036456374819708</v>
       </c>
       <c r="J25">
-        <v>1.027767129023038</v>
+        <v>1.039921237571944</v>
       </c>
       <c r="K25">
-        <v>1.031831386345076</v>
+        <v>1.039583091414209</v>
       </c>
       <c r="L25">
-        <v>1.028177444574088</v>
+        <v>1.045290763391571</v>
       </c>
       <c r="M25">
-        <v>1.030033359504975</v>
+        <v>1.053132556724184</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_175/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_175/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035492529207973</v>
+        <v>1.009018461409865</v>
       </c>
       <c r="D2">
-        <v>1.037378459628777</v>
+        <v>1.023474255475171</v>
       </c>
       <c r="E2">
-        <v>1.043347320323245</v>
+        <v>1.020695760063364</v>
       </c>
       <c r="F2">
-        <v>1.051433521651894</v>
+        <v>1.023474635808483</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036698782795838</v>
+        <v>1.044481305048432</v>
       </c>
       <c r="J2">
-        <v>1.040606006761255</v>
+        <v>1.030932737570607</v>
       </c>
       <c r="K2">
-        <v>1.040169514315052</v>
+        <v>1.0346159637257</v>
       </c>
       <c r="L2">
-        <v>1.046121442126428</v>
+        <v>1.031874107218858</v>
       </c>
       <c r="M2">
-        <v>1.054185036440427</v>
+        <v>1.034616339060773</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036345533137149</v>
+        <v>1.013023119687798</v>
       </c>
       <c r="D3">
-        <v>1.037993403367823</v>
+        <v>1.026269448706087</v>
       </c>
       <c r="E3">
-        <v>1.04414007371606</v>
+        <v>1.024154651460774</v>
       </c>
       <c r="F3">
-        <v>1.052386945588968</v>
+        <v>1.027569099238611</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036872791389277</v>
+        <v>1.045518343705586</v>
       </c>
       <c r="J3">
-        <v>1.041103068719073</v>
+        <v>1.033164949258793</v>
       </c>
       <c r="K3">
-        <v>1.040594769499334</v>
+        <v>1.036576888085125</v>
       </c>
       <c r="L3">
-        <v>1.046725259811469</v>
+        <v>1.034487522936388</v>
       </c>
       <c r="M3">
-        <v>1.054950743636265</v>
+        <v>1.037860973712063</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036898069220729</v>
+        <v>1.015566239069065</v>
       </c>
       <c r="D4">
-        <v>1.03839175007892</v>
+        <v>1.028047360393877</v>
       </c>
       <c r="E4">
-        <v>1.04465399806848</v>
+        <v>1.026356956427618</v>
       </c>
       <c r="F4">
-        <v>1.053005191315282</v>
+        <v>1.030176542569962</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036984456721124</v>
+        <v>1.046168570066543</v>
       </c>
       <c r="J4">
-        <v>1.041424628648928</v>
+        <v>1.034579969855451</v>
       </c>
       <c r="K4">
-        <v>1.040869681295405</v>
+        <v>1.037818664861876</v>
       </c>
       <c r="L4">
-        <v>1.0471162729038</v>
+        <v>1.036147352086142</v>
       </c>
       <c r="M4">
-        <v>1.055446898853029</v>
+        <v>1.039923910133556</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037130494042757</v>
+        <v>1.016624198580856</v>
       </c>
       <c r="D5">
-        <v>1.038559317984575</v>
+        <v>1.028787626550546</v>
       </c>
       <c r="E5">
-        <v>1.04487027995685</v>
+        <v>1.027274489865018</v>
       </c>
       <c r="F5">
-        <v>1.053265415280732</v>
+        <v>1.031262996368183</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037031177565089</v>
+        <v>1.046437038311499</v>
       </c>
       <c r="J5">
-        <v>1.041559793909641</v>
+        <v>1.035167997229857</v>
       </c>
       <c r="K5">
-        <v>1.040985191581794</v>
+        <v>1.038334383770193</v>
       </c>
       <c r="L5">
-        <v>1.047280725910375</v>
+        <v>1.036837877367069</v>
       </c>
       <c r="M5">
-        <v>1.055655646497785</v>
+        <v>1.040782676950545</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037169527279692</v>
+        <v>1.016801189987855</v>
       </c>
       <c r="D6">
-        <v>1.038587459361664</v>
+        <v>1.028911505751199</v>
       </c>
       <c r="E6">
-        <v>1.044906607963213</v>
+        <v>1.027428067552884</v>
       </c>
       <c r="F6">
-        <v>1.053309126360177</v>
+        <v>1.031444856284626</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037039009089341</v>
+        <v>1.046481831403514</v>
       </c>
       <c r="J6">
-        <v>1.041582487629904</v>
+        <v>1.035266333283608</v>
       </c>
       <c r="K6">
-        <v>1.041004582560401</v>
+        <v>1.038420608841524</v>
       </c>
       <c r="L6">
-        <v>1.047308342423832</v>
+        <v>1.036953399365792</v>
       </c>
       <c r="M6">
-        <v>1.055690705717544</v>
+        <v>1.04092637709846</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036901174349661</v>
+        <v>1.015580418989006</v>
       </c>
       <c r="D7">
-        <v>1.038393988727059</v>
+        <v>1.028057279775277</v>
       </c>
       <c r="E7">
-        <v>1.044656887143564</v>
+        <v>1.026369248889005</v>
       </c>
       <c r="F7">
-        <v>1.05300866721115</v>
+        <v>1.030191097569559</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036985081885403</v>
+        <v>1.046172176432219</v>
       </c>
       <c r="J7">
-        <v>1.041426434808088</v>
+        <v>1.034587853772776</v>
       </c>
       <c r="K7">
-        <v>1.040871224997074</v>
+        <v>1.037825580568512</v>
       </c>
       <c r="L7">
-        <v>1.047118470055241</v>
+        <v>1.036156607202205</v>
       </c>
       <c r="M7">
-        <v>1.055449687506835</v>
+        <v>1.039935418046226</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03578068373358</v>
+        <v>1.010382050003061</v>
       </c>
       <c r="D8">
-        <v>1.037586191259892</v>
+        <v>1.024425395739154</v>
       </c>
       <c r="E8">
-        <v>1.043615035262156</v>
+        <v>1.021872288506405</v>
       </c>
       <c r="F8">
-        <v>1.051755462050887</v>
+        <v>1.024867265962424</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036757781957621</v>
+        <v>1.044836143507895</v>
       </c>
       <c r="J8">
-        <v>1.04077400544365</v>
+        <v>1.031693318418911</v>
       </c>
       <c r="K8">
-        <v>1.040313283754073</v>
+        <v>1.035284369632377</v>
       </c>
       <c r="L8">
-        <v>1.046325441652573</v>
+        <v>1.032763917210549</v>
       </c>
       <c r="M8">
-        <v>1.054443666671308</v>
+        <v>1.035720608867633</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.033810787578096</v>
+        <v>1.000835891010607</v>
       </c>
       <c r="D9">
-        <v>1.0361661694757</v>
+        <v>1.017780636644233</v>
       </c>
       <c r="E9">
-        <v>1.041786586476362</v>
+        <v>1.013661329413552</v>
       </c>
       <c r="F9">
-        <v>1.049557316380466</v>
+        <v>1.015149314122708</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036350157612704</v>
+        <v>1.042318066664929</v>
       </c>
       <c r="J9">
-        <v>1.039623840282886</v>
+        <v>1.026359166302459</v>
       </c>
       <c r="K9">
-        <v>1.039328205282475</v>
+        <v>1.030591675039968</v>
       </c>
       <c r="L9">
-        <v>1.044930402497078</v>
+        <v>1.026536582375432</v>
       </c>
       <c r="M9">
-        <v>1.052676293576075</v>
+        <v>1.028001294494905</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032500673915796</v>
+        <v>0.9941870464585488</v>
       </c>
       <c r="D10">
-        <v>1.03522188756141</v>
+        <v>1.013172467117778</v>
       </c>
       <c r="E10">
-        <v>1.040572716346617</v>
+        <v>1.007976430833414</v>
       </c>
       <c r="F10">
-        <v>1.048098822853907</v>
+        <v>1.008421642883357</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036073678063231</v>
+        <v>1.040522620301947</v>
       </c>
       <c r="J10">
-        <v>1.03885679811576</v>
+        <v>1.022633209807194</v>
       </c>
       <c r="K10">
-        <v>1.038670268545391</v>
+        <v>1.027307892978753</v>
       </c>
       <c r="L10">
-        <v>1.044002056308442</v>
+        <v>1.022203146485036</v>
       </c>
       <c r="M10">
-        <v>1.051501743492426</v>
+        <v>1.022640488761733</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.031934146405744</v>
+        <v>0.9912344483463892</v>
       </c>
       <c r="D11">
-        <v>1.034813593157688</v>
+        <v>1.011131527046835</v>
       </c>
       <c r="E11">
-        <v>1.040048327328079</v>
+        <v>1.005460456735236</v>
       </c>
       <c r="F11">
-        <v>1.047468946416308</v>
+        <v>1.005444012233943</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035952845644265</v>
+        <v>1.039715908110094</v>
       </c>
       <c r="J11">
-        <v>1.038524612513418</v>
+        <v>1.02097648643122</v>
       </c>
       <c r="K11">
-        <v>1.038385100500157</v>
+        <v>1.025846528550924</v>
       </c>
       <c r="L11">
-        <v>1.043600487656663</v>
+        <v>1.020280126329081</v>
       </c>
       <c r="M11">
-        <v>1.050994046991437</v>
+        <v>1.020263987575257</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.03172382860758</v>
+        <v>0.9901261133078662</v>
       </c>
       <c r="D12">
-        <v>1.034662024161506</v>
+        <v>1.010366288828391</v>
       </c>
       <c r="E12">
-        <v>1.039853731642988</v>
+        <v>1.004517350154214</v>
       </c>
       <c r="F12">
-        <v>1.047235233566523</v>
+        <v>1.004327805164311</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035907796237382</v>
+        <v>1.039411717587841</v>
       </c>
       <c r="J12">
-        <v>1.038401217491344</v>
+        <v>1.020354313139128</v>
       </c>
       <c r="K12">
-        <v>1.038279135934239</v>
+        <v>1.025297545895446</v>
       </c>
       <c r="L12">
-        <v>1.043451390352899</v>
+        <v>1.019558513599531</v>
       </c>
       <c r="M12">
-        <v>1.050805601392408</v>
+        <v>1.019372558310787</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.0317689372273</v>
+        <v>0.9903643894641371</v>
       </c>
       <c r="D13">
-        <v>1.034694532138193</v>
+        <v>1.010530763158046</v>
       </c>
       <c r="E13">
-        <v>1.039895464644745</v>
+        <v>1.00472004371239</v>
       </c>
       <c r="F13">
-        <v>1.047285354365573</v>
+        <v>1.004567704361191</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035917467028809</v>
+        <v>1.039477175415779</v>
       </c>
       <c r="J13">
-        <v>1.038427686417167</v>
+        <v>1.020488083447252</v>
       </c>
       <c r="K13">
-        <v>1.03830186750524</v>
+        <v>1.025415587574173</v>
       </c>
       <c r="L13">
-        <v>1.043483369349959</v>
+        <v>1.019713638360606</v>
       </c>
       <c r="M13">
-        <v>1.050846017456993</v>
+        <v>1.019564172751378</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.031916759101055</v>
+        <v>0.9911430731414016</v>
       </c>
       <c r="D14">
-        <v>1.034801062577</v>
+        <v>1.011068419684749</v>
       </c>
       <c r="E14">
-        <v>1.040032238188849</v>
+        <v>1.005382676259245</v>
       </c>
       <c r="F14">
-        <v>1.047449622502426</v>
+        <v>1.005351956872973</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035949125246541</v>
+        <v>1.03969085713864</v>
       </c>
       <c r="J14">
-        <v>1.038514412767995</v>
+        <v>1.02092519762449</v>
       </c>
       <c r="K14">
-        <v>1.038376342254599</v>
+        <v>1.025801276699262</v>
       </c>
       <c r="L14">
-        <v>1.043588161930384</v>
+        <v>1.020220628751771</v>
       </c>
       <c r="M14">
-        <v>1.050978467246528</v>
+        <v>1.020190481396094</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032007852418607</v>
+        <v>0.9916212905624259</v>
       </c>
       <c r="D15">
-        <v>1.034866711436508</v>
+        <v>1.011398732077447</v>
       </c>
       <c r="E15">
-        <v>1.040116533548475</v>
+        <v>1.005789799395291</v>
       </c>
       <c r="F15">
-        <v>1.047550866876499</v>
+        <v>1.005833796263155</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035968608827165</v>
+        <v>1.039821907230677</v>
       </c>
       <c r="J15">
-        <v>1.038567846910004</v>
+        <v>1.021193609425835</v>
       </c>
       <c r="K15">
-        <v>1.038422223279854</v>
+        <v>1.026038087984751</v>
       </c>
       <c r="L15">
-        <v>1.043652736509828</v>
+        <v>1.020532022921443</v>
       </c>
       <c r="M15">
-        <v>1.051060091933203</v>
+        <v>1.020575207069164</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.032538288629306</v>
+        <v>0.9943814036947277</v>
       </c>
       <c r="D16">
-        <v>1.035248997205655</v>
+        <v>1.013306932598399</v>
       </c>
       <c r="E16">
-        <v>1.040607544271398</v>
+        <v>1.00814222913771</v>
       </c>
       <c r="F16">
-        <v>1.048140660823017</v>
+        <v>1.008617858101296</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036081673876986</v>
+        <v>1.040575530318534</v>
       </c>
       <c r="J16">
-        <v>1.038878843202602</v>
+        <v>1.022742224177399</v>
       </c>
       <c r="K16">
-        <v>1.038689188471457</v>
+        <v>1.027404027473348</v>
       </c>
       <c r="L16">
-        <v>1.044028715881339</v>
+        <v>1.022329762500584</v>
       </c>
       <c r="M16">
-        <v>1.051535456551647</v>
+        <v>1.022797012590304</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032871221882252</v>
+        <v>0.9960926656484834</v>
       </c>
       <c r="D17">
-        <v>1.035488953030921</v>
+        <v>1.014491492077364</v>
       </c>
       <c r="E17">
-        <v>1.040915871455385</v>
+        <v>1.009603018336806</v>
       </c>
       <c r="F17">
-        <v>1.048511068901719</v>
+        <v>1.010346618949146</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036152298544616</v>
+        <v>1.0410403223158</v>
       </c>
       <c r="J17">
-        <v>1.039073910081683</v>
+        <v>1.023701829482694</v>
       </c>
       <c r="K17">
-        <v>1.038856575324956</v>
+        <v>1.028250115907074</v>
       </c>
       <c r="L17">
-        <v>1.044264668910469</v>
+        <v>1.023444741145656</v>
       </c>
       <c r="M17">
-        <v>1.051833879980042</v>
+        <v>1.024175634334168</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033065489477312</v>
+        <v>0.9970837529357378</v>
       </c>
       <c r="D18">
-        <v>1.035628971620669</v>
+        <v>1.015178049354326</v>
       </c>
       <c r="E18">
-        <v>1.041095831540077</v>
+        <v>1.01044985320066</v>
       </c>
       <c r="F18">
-        <v>1.048727281799222</v>
+        <v>1.011348786826643</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036193385098729</v>
+        <v>1.041308613462547</v>
       </c>
       <c r="J18">
-        <v>1.039187684263061</v>
+        <v>1.02425738709315</v>
       </c>
       <c r="K18">
-        <v>1.03895418243012</v>
+        <v>1.028739833943945</v>
       </c>
       <c r="L18">
-        <v>1.044402335920105</v>
+        <v>1.024090613948792</v>
       </c>
       <c r="M18">
-        <v>1.052008031222919</v>
+        <v>1.024974459193135</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033131742087444</v>
+        <v>0.9974205062686695</v>
       </c>
       <c r="D19">
-        <v>1.035676723858841</v>
+        <v>1.015411414054169</v>
       </c>
       <c r="E19">
-        <v>1.041157213249613</v>
+        <v>1.010737728357271</v>
       </c>
       <c r="F19">
-        <v>1.048801031917026</v>
+        <v>1.011689464847672</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036207376278246</v>
+        <v>1.041399620707628</v>
       </c>
       <c r="J19">
-        <v>1.039226477429063</v>
+        <v>1.024446119782528</v>
       </c>
       <c r="K19">
-        <v>1.038987459346676</v>
+        <v>1.028906179100351</v>
       </c>
       <c r="L19">
-        <v>1.044449283487929</v>
+        <v>1.02431009002082</v>
       </c>
       <c r="M19">
-        <v>1.052067426820041</v>
+        <v>1.025245950066884</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.032835493706391</v>
+        <v>0.9959097978509827</v>
       </c>
       <c r="D20">
-        <v>1.035463202194086</v>
+        <v>1.014364854791023</v>
       </c>
       <c r="E20">
-        <v>1.040882778643018</v>
+        <v>1.00944683204538</v>
       </c>
       <c r="F20">
-        <v>1.048471311044364</v>
+        <v>1.010161782895274</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036144732313139</v>
+        <v>1.040990746627769</v>
       </c>
       <c r="J20">
-        <v>1.039052981763113</v>
+        <v>1.023599305567425</v>
       </c>
       <c r="K20">
-        <v>1.03883861906479</v>
+        <v>1.028159732422491</v>
       </c>
       <c r="L20">
-        <v>1.044239349277611</v>
+        <v>1.023325579610286</v>
       </c>
       <c r="M20">
-        <v>1.051801853073517</v>
+        <v>1.024028272427314</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.031873226036362</v>
+        <v>0.9909140952532234</v>
       </c>
       <c r="D21">
-        <v>1.034769689527489</v>
+        <v>1.01091029285768</v>
       </c>
       <c r="E21">
-        <v>1.039991956647671</v>
+        <v>1.005187787104904</v>
       </c>
       <c r="F21">
-        <v>1.047401242678897</v>
+        <v>1.005121299234828</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035939807291643</v>
+        <v>1.039628059769787</v>
       </c>
       <c r="J21">
-        <v>1.038488874188984</v>
+        <v>1.020796668217719</v>
       </c>
       <c r="K21">
-        <v>1.038354412404526</v>
+        <v>1.025687873080145</v>
       </c>
       <c r="L21">
-        <v>1.043557301372442</v>
+        <v>1.020071537332444</v>
       </c>
       <c r="M21">
-        <v>1.050939460332115</v>
+        <v>1.020006292289513</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031268880567684</v>
+        <v>0.9877056369723503</v>
       </c>
       <c r="D22">
-        <v>1.034334170547912</v>
+        <v>1.008696791039154</v>
       </c>
       <c r="E22">
-        <v>1.039432937025777</v>
+        <v>1.002460209275244</v>
       </c>
       <c r="F22">
-        <v>1.046729903077205</v>
+        <v>1.001892969458695</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035809997678911</v>
+        <v>1.038744929885377</v>
       </c>
       <c r="J22">
-        <v>1.038134160365393</v>
+        <v>1.01899508960911</v>
       </c>
       <c r="K22">
-        <v>1.038049738969789</v>
+        <v>1.024097909351771</v>
       </c>
       <c r="L22">
-        <v>1.043128836964105</v>
+        <v>1.017983085980684</v>
       </c>
       <c r="M22">
-        <v>1.050398024444218</v>
+        <v>1.01742701929637</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.031589191483129</v>
+        <v>0.9894130888148962</v>
       </c>
       <c r="D23">
-        <v>1.034564997545942</v>
+        <v>1.009874245424167</v>
       </c>
       <c r="E23">
-        <v>1.039729181376466</v>
+        <v>1.003911002512026</v>
       </c>
       <c r="F23">
-        <v>1.047085654405642</v>
+        <v>1.003610149346136</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035878903477798</v>
+        <v>1.039215642216928</v>
       </c>
       <c r="J23">
-        <v>1.038322203979167</v>
+        <v>1.019953977175434</v>
       </c>
       <c r="K23">
-        <v>1.038211273862201</v>
+        <v>1.024944256480693</v>
       </c>
       <c r="L23">
-        <v>1.043355938886696</v>
+        <v>1.019094352501246</v>
       </c>
       <c r="M23">
-        <v>1.050684974955321</v>
+        <v>1.018799264147749</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.032851637504967</v>
+        <v>0.9959924497238143</v>
       </c>
       <c r="D24">
-        <v>1.035474837714719</v>
+        <v>1.014422090232548</v>
       </c>
       <c r="E24">
-        <v>1.04089773149591</v>
+        <v>1.009517422007033</v>
       </c>
       <c r="F24">
-        <v>1.048489275414177</v>
+        <v>1.010245321442734</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036148151500061</v>
+        <v>1.041013156433439</v>
       </c>
       <c r="J24">
-        <v>1.039062438385108</v>
+        <v>1.023645644559459</v>
       </c>
       <c r="K24">
-        <v>1.038846732808836</v>
+        <v>1.028200584527055</v>
       </c>
       <c r="L24">
-        <v>1.044250790007637</v>
+        <v>1.023379437386612</v>
       </c>
       <c r="M24">
-        <v>1.051816324388743</v>
+        <v>1.024094875286186</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.034319504291269</v>
+        <v>1.003352050534388</v>
       </c>
       <c r="D25">
-        <v>1.036532863532586</v>
+        <v>1.019528851077744</v>
       </c>
       <c r="E25">
-        <v>1.04225839362846</v>
+        <v>1.01581984611002</v>
       </c>
       <c r="F25">
-        <v>1.050124374715419</v>
+        <v>1.017703793530516</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036456374819708</v>
+        <v>1.042989117893724</v>
       </c>
       <c r="J25">
-        <v>1.039921237571944</v>
+        <v>1.027767129023038</v>
       </c>
       <c r="K25">
-        <v>1.039583091414209</v>
+        <v>1.031831386345076</v>
       </c>
       <c r="L25">
-        <v>1.045290763391571</v>
+        <v>1.028177444574089</v>
       </c>
       <c r="M25">
-        <v>1.053132556724184</v>
+        <v>1.030033359504976</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
